--- a/Results/Results_ETHUSDT_horizon5.xlsx
+++ b/Results/Results_ETHUSDT_horizon5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -585,22 +585,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.46 (0.11)</t>
+          <t>0.49 (0.25)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.81 (0.62)</t>
+          <t>2.04 (1.35)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.19 (0.07)</t>
+          <t>0.20 (0.08)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>46.92 (4.97)</t>
+          <t>46.00 (5.98)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -610,31 +610,31 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>max\_depth: 8, max\_features: 2 \\</t>
+          <t>max\_depth: 8, max\_features: 4 \\</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.39255105 0.42119556 0.57665713 0.35515657 0.45605108 0.61923084
- 0.40621318 0.29754585 0.37831852 0.65080445]</t>
+          <t>[0.3394391  1.1602454  0.57893    0.35471153 0.44402708 0.61919216
+ 0.47726974 0.24386023 0.4293211  0.29081643]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1.29733377 2.05291508 2.94250647 1.29076891 1.52510028 2.43434699
- 1.55331641 0.93580009 1.48787503 2.59974339]</t>
+          <t>[1.12180522 5.65505792 2.95410427 1.28915146 1.48489031 2.43419495
+ 1.82502918 0.76695549 1.68846122 1.16171317]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[0.17783962 0.07179156 0.28633391 0.13175564 0.32953668 0.22108112
- 0.20925568 0.15587124 0.12016882 0.1499202 ]</t>
+          <t>[0.14990121 0.25555896 0.28619224 0.13806627 0.31902573 0.22080111
+ 0.27290361 0.13649925 0.13299676 0.06597059]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[43.07692308 56.92307692 44.61538462 50.76923077 38.46153846 44.61538462
- 47.69230769 50.76923077 43.07692308 49.23076923]</t>
+          <t>[40.         60.         41.53846154 43.07692308 38.46153846 44.61538462
+ 44.61538462 49.23076923 47.69230769 50.76923077]</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Regression Tree &amp; 0.46 $\pm$ 0.11 &amp; 1.81 $\pm$ 0.62 &amp; 0.19 $\pm$ 7.42 &amp; 46.92 $\pm$ 4.97 &amp; "-"</t>
+          <t>Regression Tree &amp; 0.49 $\pm$ 0.25 &amp; 2.04 $\pm$ 1.35 &amp; 0.20 $\pm$ 7.95 &amp; 46.00 $\pm$ 5.98 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -659,22 +659,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.40 (0.12)</t>
+          <t>0.54 (0.22)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.62 (0.67)</t>
+          <t>2.14 (1.03)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.18 (0.09)</t>
+          <t>0.25 (0.11)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>50.00 (4.83)</t>
+          <t>47.38 (6.70)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -684,31 +684,31 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>max\_depth: 20, max\_features: 4, n\_estimators: 150 \\</t>
+          <t>max\_depth: 2, max\_features: 2, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.33425746 0.40529013 0.60146693 0.33563605 0.45479353 0.41387165
- 0.50543128 0.20328885 0.24117703 0.53825513]</t>
+          <t>[0.39265738 0.26895554 0.76995323 0.3283451  0.50127391 0.64662013
+ 0.59489175 0.25998402 0.62962322 0.96576328]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[1.10468049 1.97539173 3.06910337 1.21982419 1.52089485 1.62703009
- 1.93271595 0.63935598 0.94851632 2.15014695]</t>
+          <t>[1.29768517 1.31089436 3.92883785 1.19332622 1.67633192 2.54202096
+ 2.27480336 0.81766582 2.47622209 3.85789727]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[0.15271653 0.09035991 0.29828373 0.12231707 0.33143101 0.13651469
- 0.2940952  0.11842263 0.07938381 0.13018355]</t>
+          <t>[0.20971865 0.06152611 0.38903063 0.13512084 0.42113697 0.23218144
+ 0.37681757 0.14906756 0.2318406  0.25833574]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>[44.61538462 49.23076923 49.23076923 47.69230769 49.23076923 55.38461538
- 47.69230769 53.84615385 43.07692308 60.        ]</t>
+          <t>[40.         53.84615385 49.23076923 40.         41.53846154 46.15384615
+ 44.61538462 49.23076923 63.07692308 46.15384615]</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Random Forest &amp; 0.40 $\pm$ 0.12 &amp; 1.62 $\pm$ 0.67 &amp; 0.18 $\pm$ 8.95 &amp; 50.00 $\pm$ 4.83 &amp; "-"</t>
+          <t>Random Forest &amp; 0.54 $\pm$ 0.22 &amp; 2.14 $\pm$ 1.03 &amp; 0.25 $\pm$ 11.22 &amp; 47.38 $\pm$ 6.70 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -837,19 +837,19 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[0.63838205 0.65768482 0.8877713  0.5425731  0.38123151 0.41530341
+          <t>[0.63838205 0.65768486 0.88777092 0.5425731  0.38123151 0.41530341
  0.24259683 0.16946205 0.24058191 0.21047623]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[2.10977553 3.20556817 4.53002774 1.97190916 1.27489289 1.63265869
- 0.92766469 0.53296862 0.94617576 0.84078128]</t>
+          <t>[2.10977553 3.20556837 4.5300258  1.97190916 1.27489289 1.63265869
+ 0.9276647  0.53296862 0.94617576 0.84078128]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[0.37206956 0.17445254 0.45445168 0.31245115 0.38407879 0.14943229
+          <t>[0.37206956 0.17445255 0.45445147 0.31245115 0.38407879 0.14943229
  0.13250988 0.09838959 0.0810786  0.04901008]</t>
         </is>
       </c>
@@ -881,22 +881,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.73 (0.34)</t>
+          <t>0.41 (0.12)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.90 (1.46)</t>
+          <t>1.64 (0.69)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.34 (0.13)</t>
+          <t>0.18 (0.09)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>45.85 (7.62)</t>
+          <t>52.00 (7.01)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -906,31 +906,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>learning\_rate: 0.01, max\_depth: 2, max\_features: 2, n\_estimators: 100 \\</t>
+          <t>learning\_rate: 0.1, max\_depth: 12, max\_features: 2, n\_estimators: 150 \\</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.36649399 0.41048057 0.8031027  0.45649609 0.54676716 1.13559557
- 0.75666328 0.45459013 0.93002117 1.44970919]</t>
+          <t>[0.33454162 0.4215834  0.63491797 0.33280083 0.44260544 0.44537057
+ 0.49317561 0.21373147 0.25105504 0.50105352]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[1.21121835 2.00069003 4.09798958 1.6590738  1.82846789 4.46430231
- 2.89340063 1.42971405 3.65764618 5.79109729]</t>
+          <t>[1.10561962 2.05480541 3.23979389 1.20951996 1.48013615 1.75086001
+ 1.88585155 0.67219867 0.98736518 2.00153914]</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[0.20309819 0.10436213 0.40781853 0.22615359 0.49833489 0.44464487
- 0.51211099 0.23554261 0.36637572 0.39513573]</t>
+          <t>[0.16164249 0.08914302 0.31691316 0.12376639 0.31812556 0.15164433
+ 0.28516757 0.12345658 0.08258548 0.11553423]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>[35.38461538 52.30769231 38.46153846 38.46153846 47.69230769 49.23076923
- 43.07692308 53.84615385 60.         40.        ]</t>
+          <t>[36.92307692 60.         52.30769231 46.15384615 47.69230769 58.46153846
+ 47.69230769 55.38461538 60.         55.38461538]</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>GBM \cite{friedman2001greedy} &amp; 0.73 $\pm$ 0.34 &amp; 2.90 $\pm$ 1.46 &amp; 0.34 $\pm$ 13.12 &amp; 45.85 $\pm$ 7.62 &amp; "-"</t>
+          <t>GBM \cite{friedman2001greedy} &amp; 0.41 $\pm$ 0.12 &amp; 1.64 $\pm$ 0.69 &amp; 0.18 $\pm$ 8.84 &amp; 52.00 $\pm$ 7.01 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1103,22 +1103,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.31 (0.19)</t>
+          <t>0.32 (0.19)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.30 (1.05)</t>
+          <t>1.31 (1.05)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.14 (0.10)</t>
+          <t>0.15 (0.11)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>48.92 (6.87)</t>
+          <t>49.54 (7.75)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1133,26 +1133,26 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[0.32448556 0.38923891 0.83140928 0.31727844 0.12665287 0.26290239
- 0.24344213 0.1647423  0.2326902  0.20946697]</t>
+          <t>[0.34150723 0.30763425 0.84392352 0.42210544 0.1260626  0.26415479
+ 0.24439581 0.1656706  0.2326845  0.20460056]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[1.07238555 1.89715776 4.24242946 1.15310592 0.42354538 1.03353322
- 0.93089703 0.51812471 0.91513877 0.8367496 ]</t>
+          <t>[1.12864013 1.49941511 4.30628584 1.53408558 0.42157144 1.03845671
+ 0.93454381 0.52104428 0.91511633 0.81730996]</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[0.19164761 0.09647604 0.42275449 0.16839157 0.10147166 0.08305776
- 0.13176448 0.09698465 0.07947018 0.05078706]</t>
+          <t>[0.20152598 0.07470363 0.42974088 0.23048021 0.10097925 0.0828764
+ 0.13281985 0.09751479 0.07918508 0.0492842 ]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>[38.46153846 50.76923077 41.53846154 46.15384615 46.15384615 53.84615385
- 53.84615385 60.         41.53846154 56.92307692]</t>
+          <t>[38.46153846 50.76923077 41.53846154 47.69230769 46.15384615 53.84615385
+ 55.38461538 61.53846154 40.         60.        ]</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MLP &amp; 0.31 $\pm$ 0.19 &amp; 1.30 $\pm$ 1.05 &amp; 0.14 $\pm$ 10.18 &amp; 48.92 $\pm$ 6.87 &amp; "-"</t>
+          <t>MLP &amp; 0.32 $\pm$ 0.19 &amp; 1.31 $\pm$ 1.05 &amp; 0.15 $\pm$ 10.87 &amp; 49.54 $\pm$ 7.75 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1177,22 +1177,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.28 (0.12)</t>
+          <t>0.26 (0.09)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.15 (0.64)</t>
+          <t>1.06 (0.47)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.12 (0.06)</t>
+          <t>0.11 (0.05)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>50.46 (7.93)</t>
+          <t>49.54 (7.40)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1207,26 +1207,26 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[0.39449002 0.37637002 0.52955414 0.28073818 0.12060288 0.29391753
- 0.23428975 0.15741007 0.23023101 0.20854122]</t>
+          <t>[0.42112416 0.29999519 0.41327601 0.29322975 0.1147844  0.27319105
+ 0.23506516 0.16390206 0.22835158 0.2039876 ]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[1.30374185 1.83443454 2.70215422 1.02030526 0.40331335 1.15546129
- 0.89589932 0.49506439 0.90546711 0.83305156]</t>
+          <t>[1.39176444 1.46218218 2.10882217 1.06570418 0.38385552 1.07398046
+ 0.89886441 0.51548212 0.89807558 0.8148614 ]</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[0.2102174  0.09483138 0.24965885 0.11791989 0.09830847 0.10218092
- 0.12837115 0.09306865 0.07690979 0.05071307]</t>
+          <t>[0.22432783 0.0622524  0.1816722  0.12384782 0.09850483 0.09298195
+ 0.12952372 0.09673447 0.07595142 0.04828696]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>[38.46153846 50.76923077 58.46153846 41.53846154 53.84615385 60.
- 52.30769231 50.76923077 38.46153846 60.        ]</t>
+          <t>[38.46153846 50.76923077 58.46153846 41.53846154 53.84615385 56.92307692
+ 47.69230769 58.46153846 38.46153846 50.76923077]</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>CNN &amp; 0.28 $\pm$ 0.12 &amp; 1.15 $\pm$ 0.64 &amp; 0.12 $\pm$ 5.81 &amp; 50.46 $\pm$ 7.93 &amp; "-"</t>
+          <t>CNN &amp; 0.26 $\pm$ 0.09 &amp; 1.06 $\pm$ 0.47 &amp; 0.11 $\pm$ 5.15 &amp; 49.54 $\pm$ 7.40 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.18 (0.68)</t>
+          <t>1.16 (0.65)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.66 (2.77)</t>
+          <t>4.58 (2.62)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.55 (0.22)</t>
+          <t>0.55 (0.21)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>45.85 (8.16)</t>
+          <t>46.46 (4.71)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1281,26 +1281,26 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[0.300282   0.75504207 0.90059125 0.71850429 0.655439   1.92834486
- 1.09261027 1.05308083 1.70297674 2.69889654]</t>
+          <t>[0.30028319 0.73475839 0.90297245 0.71903389 0.65997122 1.92624229
+ 1.09243692 1.05376209 1.70261743 2.52003227]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[ 0.99239572  3.68008927  4.59544409  2.61130746  2.19188213  7.58079253
-  4.17802654  3.31200428  6.69757479 10.78117771]</t>
+          <t>[ 0.99239965  3.58122624  4.60759463  2.61323221  2.2070385   7.57252683
+  4.17736366  3.31414689  6.69616167 10.06667554]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[0.17666952 0.20120219 0.46096691 0.41225608 0.66869861 0.77801491
- 0.78098294 0.62565341 0.6985585  0.74561832]</t>
+          <t>[0.17671185 0.19526697 0.46227687 0.41263508 0.67575963 0.7771398
+ 0.78084614 0.626125   0.69840538 0.69544341]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>[60.         56.92307692 47.69230769 36.92307692 33.84615385 44.61538462
- 43.07692308 36.92307692 47.69230769 50.76923077]</t>
+          <t>[49.23076923 52.30769231 46.15384615 44.61538462 49.23076923 40.
+ 46.15384615 36.92307692 47.69230769 52.30769231]</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>RNN &amp; 1.18 $\pm$ 0.68 &amp; 4.66 $\pm$ 2.77 &amp; 0.55 $\pm$ 21.75 &amp; 45.85 $\pm$ 8.16 &amp; "-"</t>
+          <t>RNN &amp; 1.16 $\pm$ 0.65 &amp; 4.58 $\pm$ 2.62 &amp; 0.55 $\pm$ 21.48 &amp; 46.46 $\pm$ 4.71 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1325,22 +1325,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.01 (0.50)</t>
+          <t>1.00 (0.49)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.14 (2.34)</t>
+          <t>4.08 (2.29)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.48 (0.21)</t>
+          <t>0.47 (0.21)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>46.77 (6.24)</t>
+          <t>49.38 (7.92)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1355,26 +1355,26 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[0.34491668 1.49393317 1.16147202 0.93918676 0.71029407 2.06484181
- 0.74910505 0.42978675 0.80377564 1.44378627]</t>
+          <t>[0.35095467 1.45221008 1.16497772 0.9428679  0.71082236 2.06556416
+ 0.7480175  0.42798334 0.79179817 1.35376287]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[1.13990793 7.28145837 5.92663952 3.4133483  2.37532534 8.11739525
- 2.86449878 1.35170587 3.16113975 5.7674372 ]</t>
+          <t>[1.15986277 7.07809924 5.94452808 3.4267269  2.37709204 8.12023497
+ 2.86034008 1.34603404 3.11403399 5.40782421]</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[0.17580711 0.41312057 0.60371343 0.56717841 0.7533589  0.8347932
- 0.50607822 0.20875372 0.31051516 0.39231954]</t>
+          <t>[0.17661589 0.4012633  0.60562351 0.56972489 0.75416685 0.83509351
+ 0.50519526 0.21404586 0.30536641 0.36698114]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>[44.61538462 50.76923077 38.46153846 46.15384615 36.92307692 50.76923077
- 46.15384615 60.         49.23076923 44.61538462]</t>
+          <t>[47.69230769 55.38461538 30.76923077 47.69230769 41.53846154 49.23076923
+ 56.92307692 58.46153846 55.38461538 50.76923077]</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LSTM &amp; 1.01 $\pm$ 0.50 &amp; 4.14 $\pm$ 2.34 &amp; 0.48 $\pm$ 20.76 &amp; 46.77 $\pm$ 6.24 &amp; "-"</t>
+          <t>LSTM &amp; 1.00 $\pm$ 0.49 &amp; 4.08 $\pm$ 2.29 &amp; 0.47 $\pm$ 20.92 &amp; 49.38 $\pm$ 7.92 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1399,22 +1399,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.78 (0.30)</t>
+          <t>0.79 (0.29)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.21 (1.67)</t>
+          <t>3.22 (1.63)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.36 (0.14)</t>
+          <t>0.38 (0.17)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>49.69 (8.48)</t>
+          <t>47.08 (6.01)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1429,26 +1429,26 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[0.30341012 1.29430994 1.09514562 0.88353754 0.54504482 0.85755981
- 0.69107543 0.40099077 0.65245432 1.08904939]</t>
+          <t>[0.30384765 1.29527322 1.09363241 0.88245514 0.69662637 0.81244337
+ 0.68788306 0.39425797 0.64896027 1.03953362]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[1.00273377 6.308491   5.58819603 3.21109865 1.82270813 3.37127615
- 2.64259962 1.26114074 2.56601366 4.3503835 ]</t>
+          <t>[1.00417975 6.31318603 5.58047456 3.20716482 2.32961858 3.19391243
+ 2.63039235 1.23996567 2.55227206 4.15258477]</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[0.17385681 0.35632209 0.56754229 0.52856266 0.49131068 0.32726949
- 0.45896518 0.1756574  0.2424064  0.29157586]</t>
+          <t>[0.17370034 0.35659666 0.56671624 0.52780915 0.73240988 0.30797621
+ 0.45606277 0.17816867 0.24089953 0.27707096]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>[38.46153846 49.23076923 60.         41.53846154 41.53846154 41.53846154
- 52.30769231 61.53846154 49.23076923 61.53846154]</t>
+          <t>[38.46153846 53.84615385 36.92307692 43.07692308 43.07692308 49.23076923
+ 47.69230769 52.30769231 52.30769231 53.84615385]</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>GRU &amp; 0.78 $\pm$ 0.30 &amp; 3.21 $\pm$ 1.67 &amp; 0.36 $\pm$ 13.66 &amp; 49.69 $\pm$ 8.48 &amp; "-"</t>
+          <t>GRU &amp; 0.79 $\pm$ 0.29 &amp; 3.22 $\pm$ 1.63 &amp; 0.38 $\pm$ 17.48 &amp; 47.08 $\pm$ 6.01 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1473,22 +1473,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.28 (0.16)</t>
+          <t>0.30 (0.20)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.19 (0.87)</t>
+          <t>1.28 (1.09)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.12 (0.07)</t>
+          <t>0.13 (0.10)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>50.31 (7.15)</t>
+          <t>48.46 (6.09)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1503,26 +1503,26 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[0.34992291 0.49450442 0.63371474 0.12812565 0.11624256 0.25942553
- 0.23341974 0.17389321 0.23538606 0.21717746]</t>
+          <t>[0.37554979 0.4859574  0.81161684 0.12669596 0.11490809 0.26104456
+ 0.23450564 0.1707115  0.23188967 0.21439598]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[1.15645293 2.41022385 3.23365415 0.46565548 0.3887318  1.01986485
- 0.89257248 0.54690488 0.92574122 0.86755041]</t>
+          <t>[1.24114668 2.3685655  4.14143464 0.46045947 0.38426915 1.02622964
+ 0.89672485 0.53689821 0.91199039 0.85643935]</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[0.20119382 0.12360749 0.3132229  0.06212614 0.10331466 0.08369413
- 0.12784167 0.1019858  0.0796659  0.05144042]</t>
+          <t>[0.19808794 0.12115789 0.41184488 0.05882002 0.10848322 0.0873774
+ 0.12961787 0.09619435 0.07866046 0.05201281]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>[38.46153846 50.76923077 58.46153846 43.07692308 50.76923077 56.92307692
- 52.30769231 61.53846154 41.53846154 49.23076923]</t>
+          <t>[38.46153846 50.76923077 43.07692308 44.61538462 47.69230769 58.46153846
+ 52.30769231 53.84615385 41.53846154 53.84615385]</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>WaveNet &amp; 0.28 $\pm$ 0.16 &amp; 1.19 $\pm$ 0.87 &amp; 0.12 $\pm$ 7.44 &amp; 50.31 $\pm$ 7.15 &amp; "-"</t>
+          <t>WaveNet &amp; 0.30 $\pm$ 0.20 &amp; 1.28 $\pm$ 1.09 &amp; 0.13 $\pm$ 10.06 &amp; 48.46 $\pm$ 6.09 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -1547,66 +1547,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.35 (0.19)</t>
+          <t>0.23 (0.06)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.40 (0.84)</t>
+          <t>0.92 (0.33)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.16 (0.11)</t>
+          <t>0.10 (0.04)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>49.85 (7.76)</t>
+          <t>50.15 (6.24)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>5 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>omega: 50, r: 0.1 \\</t>
+          <t>omega: 250, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[0.77679716 0.51996288 0.5360355  0.23035708 0.13861665 0.35946651
- 0.2543121  0.16566152 0.26234509 0.22149971]</t>
+          <t>[0.32748132 0.25835079 0.29404749 0.17054267 0.13086165 0.28598707
+ 0.23035101 0.15118301 0.25710708 0.20203996]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[2.56722074 2.53430888 2.73522662 0.8372019  0.46355397 1.41315027
- 0.97246268 0.52101573 1.03176738 0.88481632]</t>
+          <t>[1.08228619 1.25920663 1.5004352  0.61981446 0.43762016 1.1242847
+ 0.88083798 0.47547992 1.011167   0.80708122]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[0.45588785 0.13049216 0.26374779 0.11618004 0.10764881 0.12095999
- 0.12725592 0.09635471 0.08802185 0.05349441]</t>
+          <t>[0.17540653 0.05827624 0.13732254 0.07157152 0.10284001 0.09357439
+ 0.12760591 0.08846237 0.08435524 0.04737169]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>[38.46153846 49.23076923 63.07692308 46.15384615 40.         56.92307692
- 46.15384615 60.         46.15384615 52.30769231]</t>
+          <t>[41.53846154 53.84615385 58.46153846 50.76923077 44.61538462 58.46153846
+ 53.84615385 53.84615385 41.53846154 44.61538462]</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[4. 5. 5. 5. 5. 5. 5. 5. 5. 5.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>eTS &amp; 0.35 $\pm$ 0.19 &amp; 1.40 $\pm$ 0.84 &amp; 0.16 $\pm$ 11.26 &amp; 49.85 $\pm$ 7.76 &amp; 5 $\pm$ 0</t>
+          <t>eTS &amp; 0.23 $\pm$ 0.06 &amp; 0.92 $\pm$ 0.33 &amp; 0.10 $\pm$ 3.68 &amp; 50.15 $\pm$ 6.24 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1621,66 +1621,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.41 (0.20)</t>
+          <t>0.23 (0.06)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.68 (1.02)</t>
+          <t>0.92 (0.33)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.21 (0.13)</t>
+          <t>0.10 (0.04)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>47.54 (7.55)</t>
+          <t>50.15 (6.24)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>44 (5)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>omega: 50, r: 0.7 \\</t>
+          <t>omega: 250, r: 0.1 \\</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>[0.65060189 0.55136724 0.80474202 0.4376691  0.4047813  0.42656777
- 0.24089977 0.16856645 0.24073025 0.20950072]</t>
+          <t>[0.32748132 0.25835079 0.29404749 0.17054267 0.13086165 0.28598707
+ 0.23035101 0.15118301 0.25710708 0.20203996]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[2.15016062 2.68737429 4.1063545  1.59064963 1.35364678 1.67694164
- 0.92117534 0.53015191 0.94675918 0.83688442]</t>
+          <t>[1.08228619 1.25920663 1.5004352  0.61981446 0.43762016 1.1242847
+ 0.88083798 0.47547992 1.011167   0.80708122]</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[0.39097891 0.14246823 0.40864793 0.23552661 0.39507362 0.15369725
- 0.13167665 0.09822552 0.08111366 0.04902242]</t>
+          <t>[0.17540653 0.05827624 0.13732254 0.07157152 0.10284001 0.09357439
+ 0.12760591 0.08846237 0.08435524 0.04737169]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>[38.46153846 50.76923077 41.53846154 38.46153846 47.69230769 50.76923077
- 56.92307692 60.         38.46153846 52.30769231]</t>
+          <t>[41.53846154 53.84615385 58.46153846 50.76923077 44.61538462 58.46153846
+ 53.84615385 53.84615385 41.53846154 44.61538462]</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[58. 42. 44. 43. 43. 43. 43. 43. 43. 43.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Simpl\_eTS &amp; 0.41 $\pm$ 0.20 &amp; 1.68 $\pm$ 1.02 &amp; 0.21 $\pm$ 13.27 &amp; 47.54 $\pm$ 7.55 &amp; 44 $\pm$ 5</t>
+          <t>Simpl\_eTS &amp; 0.23 $\pm$ 0.06 &amp; 0.92 $\pm$ 0.33 &amp; 0.10 $\pm$ 3.68 &amp; 50.15 $\pm$ 6.24 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1695,66 +1695,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.23 (0.07)</t>
+          <t>0.29 (0.15)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.90 (0.29)</t>
+          <t>1.15 (0.63)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.10 (0.05)</t>
+          <t>0.13 (0.09)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>49.54 (4.12)</t>
+          <t>50.62 (6.09)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3 (0)</t>
+          <t>2 (0)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>mu: 0.1, omega: 250 \\</t>
+          <t>mu: 0.1, omega: 50 \\</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>[0.39526723 0.24550325 0.23726321 0.17692189 0.13661893 0.25586351
- 0.22450714 0.15338863 0.27791339 0.18953996]</t>
+          <t>[0.6533436  0.37161932 0.43571307 0.19614669 0.13595321 0.25730715
+ 0.2290477  0.15190233 0.25871623 0.19797818]</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>[1.30631044 1.19658746 1.2106822  0.64299887 0.45687333 1.00586167
- 0.85849165 0.48241671 1.09299537 0.75714796]</t>
+          <t>[2.15922163 1.81127956 2.22331166 0.71286884 0.45464705 1.01153698
+ 0.87585427 0.47774221 1.0174956  0.79085579]</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[0.21690152 0.05358335 0.10465129 0.07544448 0.10538712 0.08494078
- 0.12636011 0.08796711 0.09420414 0.04373876]</t>
+          <t>[0.3721662  0.09249055 0.21215199 0.09020014 0.10605852 0.08397769
+ 0.12562999 0.08855716 0.08615678 0.04707338]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>[44.61538462 55.38461538 50.76923077 47.69230769 43.07692308 55.38461538
- 49.23076923 53.84615385 46.15384615 49.23076923]</t>
+          <t>[40.         55.38461538 53.84615385 46.15384615 47.69230769 58.46153846
+ 53.84615385 56.92307692 41.53846154 52.30769231]</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[2. 3. 3. 3. 3. 3. 3. 3. 3. 3.]</t>
+          <t>[2. 2. 2. 2. 2. 2. 2. 2. 2. 2.]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>exTS &amp; 0.23 $\pm$ 0.07 &amp; 0.90 $\pm$ 0.29 &amp; 0.10 $\pm$ 4.55 &amp; 49.54 $\pm$ 4.12 &amp; 3 $\pm$ 0</t>
+          <t>exTS &amp; 0.29 $\pm$ 0.15 &amp; 1.15 $\pm$ 0.63 &amp; 0.13 $\pm$ 9.03 &amp; 50.62 $\pm$ 6.09 &amp; 2 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1769,66 +1769,66 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.75 (5.46)</t>
+          <t>0.32 (0.08)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18.55 (21.58)</t>
+          <t>1.28 (0.44)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.94 (1.86)</t>
+          <t>0.15 (0.07)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50.77 (5.92)</t>
+          <t>49.54 (5.41)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3 (2)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.01, lambda1: 0.001, r: 0.5, s: 100 \\</t>
+          <t>alpha: 0.1, beta: 0.001, lambda1: 0.001, omega: 100, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>[ 0.4803155   3.04871515  0.54430711  0.21219781  0.2934349   4.99205706
-  2.52866347  6.50261644 11.07749018 17.82741105]</t>
+          <t>[0.4803155  0.41263494 0.42626588 0.26488204 0.31993304 0.24270316
+ 0.28701218 0.292945   0.25611995 0.26547065]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[ 1.58738467 14.859495    2.77743413  0.77120446  0.98128844 19.62499015
-  9.66934263 20.4511305  43.56625513 71.21447   ]</t>
+          <t>[1.58738467 2.01119046 2.17510555 0.96267824 1.06990202 0.95412514
+ 1.09750434 0.92133013 1.00728477 1.06046534]</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[0.26198674 0.85607588 0.27064963 0.08322888 0.2267785  2.04429917
- 1.8730528  4.17881221 4.62200079 4.95611248]</t>
+          <t>[0.26198674 0.10519296 0.20691551 0.10502391 0.24953606 0.08001671
+ 0.16618922 0.16993017 0.08752773 0.06226414]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>[43.07692308 55.38461538 49.23076923 49.23076923 49.23076923 63.07692308
- 49.23076923 55.38461538 41.53846154 52.30769231]</t>
+          <t>[43.07692308 50.76923077 55.38461538 49.23076923 44.61538462 60.
+ 44.61538462 43.07692308 52.30769231 52.30769231]</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[1. 2. 1. 1. 1. 3. 3. 5. 6. 6.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 2. 2. 2.]</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>ePL &amp; 4.75 $\pm$ 5.46 &amp; 18.55 $\pm$ 21.58 &amp; 1.94 $\pm$ 185.68 &amp; 50.77 $\pm$ 5.92 &amp; 3 $\pm$ 2</t>
+          <t>ePL &amp; 0.32 $\pm$ 0.08 &amp; 1.28 $\pm$ 0.44 &amp; 0.15 $\pm$ 6.85 &amp; 49.54 $\pm$ 5.41 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1843,66 +1843,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.50 (0.22)</t>
+          <t>0.59 (0.52)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.03 (1.16)</t>
+          <t>2.34 (2.10)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.23 (0.13)</t>
+          <t>0.22 (0.12)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>49.08 (6.79)</t>
+          <t>56.00 (5.38)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12 (9)</t>
+          <t>42 (37)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>alpha: 0.01, lambda1: 0.1, omega: 10000, sigma: 0.003, w: 10 \\</t>
+          <t>alpha: 0.001, lambda1: 0.5, omega: 10000, sigma: 0.001, w: 10 \\</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>[0.37990353 0.50180144 0.91477832 0.31833854 0.43967256 0.88029368
- 0.64857489 0.28871072 0.32644598 0.30118335]</t>
+          <t>[0.28308159 0.21664079 0.49397363 0.32358677 0.44286828 1.07015972
+ 0.54773385 0.2585508  0.30665477 1.98455264]</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[1.25553526 2.44578968 4.66783637 1.15695874 1.47032817 3.4606485
- 2.48008203 0.90801305 1.28386742 1.2031255 ]</t>
+          <t>[0.93555044 1.05591128 2.52059767 1.1760327  1.48101511 4.20705807
+ 2.09447652 0.81315824 1.2060313  7.92761575]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[0.20329431 0.12575096 0.45805678 0.12361614 0.31829337 0.32111658
- 0.39994014 0.15157781 0.10486568 0.06609775]</t>
+          <t>[0.13935811 0.04746675 0.20316597 0.12592252 0.32449745 0.37331208
+ 0.31211653 0.13818304 0.0992577  0.42122151]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>[46.15384615 49.23076923 33.84615385 50.76923077 58.46153846 53.84615385
- 52.30769231 49.23076923 55.38461538 41.53846154]</t>
+          <t>[49.23076923 56.92307692 55.38461538 53.84615385 49.23076923 58.46153846
+ 50.76923077 60.         58.46153846 67.69230769]</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[ 2.  5.  4.  5.  6. 10. 13. 25. 26. 26.]</t>
+          <t>[  4.   8.   8.  15.  19.  34.  47.  83.  96. 108.]</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>eMG &amp; 0.50 $\pm$ 0.22 &amp; 2.03 $\pm$ 1.16 &amp; 0.23 $\pm$ 12.98 &amp; 49.08 $\pm$ 6.79 &amp; 12 $\pm$ 9</t>
+          <t>eMG &amp; 0.59 $\pm$ 0.52 &amp; 2.34 $\pm$ 2.10 &amp; 0.22 $\pm$ 12.25 &amp; 56.00 $\pm$ 5.38 &amp; 42 $\pm$ 37</t>
         </is>
       </c>
     </row>
@@ -1917,66 +1917,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.33 (0.13)</t>
+          <t>0.25 (0.10)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.33 (0.75)</t>
+          <t>1.01 (0.43)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.15 (0.08)</t>
+          <t>0.11 (0.06)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>50.00 (7.29)</t>
+          <t>50.31 (5.15)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2 (0)</t>
+          <t>1 (0)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.05, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.25 \\</t>
+          <t>alpha: 0.001, beta: 0.01, e\_utility: 0.03, lambda1: 0.25, omega: 100, pi: 0.3, sigma: 0.1 \\</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>[0.47279876 0.46390437 0.61616111 0.19794033 0.25387558 0.23317064
- 0.28162075 0.23516904 0.28885808 0.21624478]</t>
+          <t>[0.4803155  0.29553869 0.33319101 0.17413573 0.1300892  0.28403714
+ 0.2310668  0.15091742 0.25298331 0.2016115 ]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[1.56254276 2.26107864 3.14408332 0.71938757 0.8489964  0.91665048
- 1.07688806 0.73962115 1.13603937 0.86382467]</t>
+          <t>[1.58738467 1.44046115 1.70017268 0.63287295 0.43503695 1.11661905
+ 0.88357509 0.47464462 0.99494877 0.80536968]</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[0.25959102 0.11981831 0.29609292 0.0919477  0.18908211 0.0797332
- 0.13877469 0.13593156 0.09778096 0.04752656]</t>
+          <t>[0.26198674 0.06996053 0.15835006 0.07495384 0.10227114 0.09276338
+ 0.12712248 0.08846601 0.08310789 0.04760647]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>[43.07692308 52.30769231 52.30769231 53.84615385 41.53846154 60.
- 55.38461538 46.15384615 58.46153846 36.92307692]</t>
+          <t>[43.07692308 50.76923077 53.84615385 47.69230769 46.15384615 56.92307692
+ 53.84615385 58.46153846 43.07692308 49.23076923]</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>[1. 2. 2. 2. 1. 1. 1. 2. 2. 2.]</t>
+          <t>[1. 1. 1. 1. 1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>ePL+ &amp; 0.33 $\pm$ 0.13 &amp; 1.33 $\pm$ 0.75 &amp; 0.15 $\pm$ 7.58 &amp; 50.00 $\pm$ 7.29 &amp; 2 $\pm$ 0</t>
+          <t>ePL+ &amp; 0.25 $\pm$ 0.10 &amp; 1.01 $\pm$ 0.43 &amp; 0.11 $\pm$ 5.83 &amp; 50.31 $\pm$ 5.15 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -1991,66 +1991,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.63 (0.49)</t>
+          <t>2.42 (3.95)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.43 (1.94)</t>
+          <t>9.50 (15.57)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.26 (0.19)</t>
+          <t>0.80 (1.25)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>50.15 (6.53)</t>
+          <t>48.15 (7.48)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>8 (7)</t>
+          <t>4 (3)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>alpha: 0.05, beta: 0.01, e\_utility: 0.05, lambda1: 1e-07, sigma: 10 \\</t>
+          <t>alpha: 0.05, beta: 0.01, e\_utility: 0.03, lambda1: 1e-07, sigma: 10 \\</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>[0.75861502 0.26012539 0.51282466 0.25389282 0.56842698 1.95722927
- 0.94047218 0.24622668 0.30957932 0.4620649 ]</t>
+          <t>[ 0.75861502  0.26011409  0.5127886   0.25193401  0.56811683  1.87004205
+  0.64993205  0.41768976 13.34901083  5.53922166]</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[2.50713094 1.26785605 2.61678875 0.92273939 1.90090144 7.69434418
- 3.5962665  0.77439814 1.21753314 1.84579281]</t>
+          <t>[ 2.50713094  1.26780098  2.61660472  0.91562036  1.89986424  7.35159003
+  2.48527166  1.31366011 52.49983541 22.12731469]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>[0.43270172 0.0577915  0.24244202 0.1206036  0.35392985 0.67690227
- 0.42208711 0.1329732  0.09667964 0.08502846]</t>
+          <t>[0.43270172 0.05779017 0.24242589 0.11842585 0.35314769 0.62713253
+ 0.34797014 0.18559676 4.4237074  1.21639128]</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>[38.46153846 52.30769231 43.07692308 49.23076923 55.38461538 58.46153846
- 56.92307692 53.84615385 41.53846154 52.30769231]</t>
+          <t>[38.46153846 52.30769231 43.07692308 49.23076923 55.38461538 60.
+ 44.61538462 47.69230769 35.38461538 55.38461538]</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>[ 1.  1.  1.  1.  2.  7. 10. 17. 18. 18.]</t>
+          <t>[1. 1. 1. 1. 2. 4. 5. 7. 7. 7.]</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>ePL-KRLS-DISCO &amp; 0.63 $\pm$ 0.49 &amp; 2.43 $\pm$ 1.94 &amp; 0.26 $\pm$ 19.31 &amp; 50.15 $\pm$ 6.53 &amp; 8 $\pm$ 7</t>
+          <t>ePL-KRLS-DISCO &amp; 2.42 $\pm$ 3.95 &amp; 9.50 $\pm$ 15.57 &amp; 0.80 $\pm$ 124.81 &amp; 48.15 $\pm$ 7.48 &amp; 4 $\pm$ 3</t>
         </is>
       </c>
     </row>
@@ -2065,22 +2065,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.52 (0.24)</t>
+          <t>0.54 (0.22)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.09 (1.17)</t>
+          <t>2.16 (1.09)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.24 (0.15)</t>
+          <t>0.25 (0.14)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>46.15 (5.06)</t>
+          <t>46.62 (5.33)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2095,26 +2095,26 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>[0.50560607 0.2143821  0.91573169 0.36406358 0.5664411  0.78272427
- 0.70734361 0.18528351 0.28384765 0.7130053 ]</t>
+          <t>[0.51176804 0.31880135 0.91031406 0.37591743 0.56644628 0.75178882
+ 0.7026292  0.20543793 0.33404433 0.7131764 ]</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[1.67096697 1.04490239 4.67270117 1.32314025 1.89426037 3.07707943
- 2.70480742 0.58272809 1.11633401 2.84821473]</t>
+          <t>[1.69133153 1.5538438  4.64505665 1.36622146 1.89427767 2.95546465
+ 2.68678002 0.646115   1.3137507  2.84889822]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[0.27177962 0.04364305 0.46104822 0.12909483 0.44503911 0.28867936
- 0.43334325 0.10319113 0.09189572 0.18181423]</t>
+          <t>[0.27793594 0.07134582 0.45874702 0.14057959 0.44511498 0.27611762
+ 0.4286816  0.09640894 0.10986669 0.18187797]</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>[38.46153846 52.30769231 46.15384615 47.69230769 40.         49.23076923
- 49.23076923 52.30769231 38.46153846 47.69230769]</t>
+          <t>[38.46153846 52.30769231 52.30769231 47.69230769 40.         49.23076923
+ 47.69230769 52.30769231 38.46153846 47.69230769]</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NMR &amp; 0.52 $\pm$ 0.24 &amp; 2.09 $\pm$ 1.17 &amp; 0.24 $\pm$ 15.04 &amp; 46.15 $\pm$ 5.06 &amp; 3 $\pm$ 0</t>
+          <t>NMR &amp; 0.54 $\pm$ 0.22 &amp; 2.16 $\pm$ 1.09 &amp; 0.25 $\pm$ 14.38 &amp; 46.62 $\pm$ 5.33 &amp; 3 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2139,22 +2139,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.24 (0.06)</t>
+          <t>0.26 (0.06)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.94 (0.31)</t>
+          <t>1.01 (0.31)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.10 (0.03)</t>
+          <t>0.11 (0.04)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>49.54 (3.82)</t>
+          <t>47.85 (3.19)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2164,31 +2164,31 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.99, rules: 1 \\</t>
+          <t>adaptive\_filter: RLS, fuzzy\_operator: prod, lambda1: 0.98, rules: 1 \\</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>[0.28204391 0.22701292 0.29464811 0.21366644 0.14081732 0.33519664
- 0.22918498 0.17013097 0.26833749 0.20042048]</t>
+          <t>[0.30473791 0.23040979 0.30671061 0.28526122 0.18880489 0.36648509
+ 0.22692259 0.1716673  0.28447505 0.20480935]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[0.93212104 1.10646523 1.50349997 0.776542   0.47091333 1.3177395
- 0.87637923 0.5350724  1.05533467 0.80061194]</t>
+          <t>[1.00712197 1.12302164 1.56505124 1.03674364 0.63139066 1.44074201
+ 0.86772806 0.53990427 1.11880149 0.818144  ]</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[0.14455355 0.0484556  0.13476452 0.09550859 0.10835178 0.11281747
- 0.12967559 0.09645047 0.08848619 0.046402  ]</t>
+          <t>[0.16046296 0.04932878 0.14081571 0.12911774 0.13822627 0.12519738
+ 0.12801141 0.09663448 0.09581239 0.04741951]</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>[50.76923077 55.38461538 55.38461538 50.76923077 47.69230769 52.30769231
- 47.69230769 44.61538462 44.61538462 46.15384615]</t>
+          <t>[49.23076923 50.76923077 50.76923077 46.15384615 47.69230769 53.84615385
+ 44.61538462 44.61538462 43.07692308 47.69230769]</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>NTSK-RLS &amp; 0.24 $\pm$ 0.06 &amp; 0.94 $\pm$ 0.31 &amp; 0.10 $\pm$ 3.16 &amp; 49.54 $\pm$ 3.82 &amp; 1 $\pm$ 0</t>
+          <t>NTSK-RLS &amp; 0.26 $\pm$ 0.06 &amp; 1.01 $\pm$ 0.31 &amp; 0.11 $\pm$ 3.63 &amp; 47.85 $\pm$ 3.19 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2213,66 +2213,66 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.23 (0.06)</t>
+          <t>0.25 (0.06)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.94 (0.33)</t>
+          <t>0.99 (0.31)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.10 (0.03)</t>
+          <t>0.11 (0.04)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>50.31 (6.74)</t>
+          <t>47.38 (6.15)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>11 (2)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 6 \\</t>
+          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 14 \\</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>[0.26830123 0.2695894  0.2831798  0.19844459 0.1383911  0.3537489
- 0.20941256 0.16257376 0.26297993 0.20310664]</t>
+          <t>[0.36255785 0.29815153 0.27697202 0.26681323 0.14130431 0.25823799
+ 0.22871946 0.16735481 0.26881125 0.23228731]</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[0.88670313 1.31398379 1.44498064 0.72122025 0.46279972 1.39067293
- 0.80077156 0.51130452 1.03426413 0.81134223]</t>
+          <t>[1.19820989 1.45319617 1.41330423 0.9696969  0.47254188 1.01519633
+ 0.87459913 0.52634121 1.05719791 0.92790913]</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>[0.14026048 0.06230439 0.13057864 0.08309737 0.10709567 0.11874597
- 0.11900437 0.09309785 0.08660525 0.0477832 ]</t>
+          <t>[0.19174079 0.07158749 0.12779258 0.10323041 0.10839554 0.08333914
+ 0.12841821 0.09636464 0.09065935 0.05402552]</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>[49.23076923 55.38461538 58.46153846 46.15384615 43.07692308 61.53846154
- 52.30769231 52.30769231 38.46153846 46.15384615]</t>
+          <t>[33.84615385 53.84615385 46.15384615 46.15384615 47.69230769 52.30769231
+ 53.84615385 53.84615385 41.53846154 44.61538462]</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>[5. 5. 5. 6. 6. 6. 6. 5. 5. 6.]</t>
+          <t>[ 9.  9.  9. 11. 12. 12. 14. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>NTSK-wRLS &amp; 0.23 $\pm$ 0.06 &amp; 0.94 $\pm$ 0.33 &amp; 0.10 $\pm$ 2.82 &amp; 50.31 $\pm$ 6.74 &amp; 6 $\pm$ 0</t>
+          <t>NTSK-wRLS &amp; 0.25 $\pm$ 0.06 &amp; 0.99 $\pm$ 0.31 &amp; 0.11 $\pm$ 3.61 &amp; 47.38 $\pm$ 6.15 &amp; 11 $\pm$ 2</t>
         </is>
       </c>
     </row>
@@ -2287,22 +2287,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.52 (0.24)</t>
+          <t>0.53 (0.22)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.10 (1.15)</t>
+          <t>2.13 (1.09)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.25 (0.15)</t>
+          <t>0.24 (0.14)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>46.62 (5.55)</t>
+          <t>48.00 (7.53)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2312,31 +2312,31 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>error\_metric: MAE, fuzzy\_operator: min, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 3, sol\_per\_pop: 10 \\</t>
+          <t>error\_metric: CPPM, fuzzy\_operator: min, num\_generations: 10, num\_parents\_mating: 5, parallel\_processing: 10, rules: 3, sol\_per\_pop: 10 \\</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>[0.50056049 0.22249672 0.91058958 0.38112695 0.56644211 0.75627781
- 0.72647109 0.19372587 0.27688896 0.7130081 ]</t>
+          <t>[0.47895004 0.31974466 0.90811148 0.37918596 0.56644615 0.76308781
+ 0.67135313 0.22914866 0.2963071  0.71317723]</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[1.65429191 1.08445322 4.64646253 1.38515479 1.89426374 2.97311198
- 2.7779489  0.60927985 1.08896643 2.84822592]</t>
+          <t>[1.58287201 1.55844147 4.63381755 1.37810052 1.89427725 2.99988375
+ 2.56718361 0.72068668 1.16533533 2.84890151]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>[0.26829257 0.04597002 0.45773413 0.12890879 0.4450537  0.28257478
- 0.44809677 0.10520637 0.08976775 0.18181721]</t>
+          <t>[0.25607091 0.07048476 0.45760136 0.14077755 0.4451136  0.28071795
+ 0.3998945  0.10756957 0.09653222 0.1818814 ]</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>[36.92307692 49.23076923 43.07692308 49.23076923 43.07692308 47.69230769
- 49.23076923 58.46153846 41.53846154 47.69230769]</t>
+          <t>[38.46153846 47.69230769 55.38461538 43.07692308 36.92307692 53.84615385
+ 60.         55.38461538 41.53846154 47.69230769]</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>GEN-NMR &amp; 0.52 $\pm$ 0.24 &amp; 2.10 $\pm$ 1.15 &amp; 0.25 $\pm$ 15.14 &amp; 46.62 $\pm$ 5.55 &amp; 3 $\pm$ 0</t>
+          <t>GEN-NMR &amp; 0.53 $\pm$ 0.22 &amp; 2.13 $\pm$ 1.09 &amp; 0.24 $\pm$ 14.03 &amp; 48.00 $\pm$ 7.53 &amp; 3 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2361,22 +2361,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.24 (0.06)</t>
+          <t>0.35 (0.16)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.96 (0.33)</t>
+          <t>1.37 (0.65)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.10 (0.04)</t>
+          <t>0.15 (0.07)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>49.08 (5.48)</t>
+          <t>49.23 (6.15)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2386,31 +2386,31 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>adaptive\_filter: RLS, error\_metric: RMSE, fuzzy\_operator: prod, lambda1: 0.97, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
+          <t>adaptive\_filter: RLS, error\_metric: CPPM, fuzzy\_operator: minmax, lambda1: 0.98, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 1, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>[0.34446363 0.24250612 0.31566697 0.18521059 0.14561948 0.28332545
- 0.23224808 0.16097644 0.28511421 0.21553733]</t>
+          <t>[0.44078825 0.23149319 0.2901317  0.19596613 0.25166482 0.72502941
+ 0.43637542 0.18930891 0.24395399 0.49143795]</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[1.13841067 1.18197937 1.61075285 0.67312304 0.48697245 1.11382123
- 0.88809217 0.50628086 1.12131521 0.86099862]</t>
+          <t>[1.45675188 1.12830219 1.4804541  0.71221262 0.84160329 2.85026692
+ 1.66865362 0.59538823 0.95943769 1.96312819]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[0.1884627  0.05325613 0.14701524 0.07258023 0.11156855 0.09050618
- 0.13201032 0.09150578 0.09734725 0.04867791]</t>
+          <t>[0.24065886 0.05002665 0.13328228 0.07473457 0.20926857 0.259537
+ 0.23998424 0.10612688 0.08343098 0.1217113 ]</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>[40.         46.15384615 49.23076923 58.46153846 58.46153846 47.69230769
- 49.23076923 44.61538462 46.15384615 50.76923077]</t>
+          <t>[43.07692308 47.69230769 55.38461538 53.84615385 47.69230769 41.53846154
+ 53.84615385 56.92307692 38.46153846 53.84615385]</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>GEN-NTSK-RLS &amp; 0.24 $\pm$ 0.06 &amp; 0.96 $\pm$ 0.33 &amp; 0.10 $\pm$ 4.10 &amp; 49.08 $\pm$ 5.48 &amp; 1 $\pm$ 0</t>
+          <t>GEN-NTSK-RLS &amp; 0.35 $\pm$ 0.16 &amp; 1.37 $\pm$ 0.65 &amp; 0.15 $\pm$ 7.41 &amp; 49.23 $\pm$ 6.15 &amp; 1 $\pm$ 0</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.31 (0.21)</t>
+          <t>0.28 (0.13)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.24 (0.86)</t>
+          <t>1.15 (0.65)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2450,51 +2450,51 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>50.77 (4.67)</t>
+          <t>49.54 (4.12)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>6 (0)</t>
+          <t>14 (2)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 6 \\</t>
+          <t>adaptive\_filter: wRLS, error\_metric: RMSE, fuzzy\_operator: min, num\_generations: 5, num\_parents\_mating: 5, parallel\_processing: 10, rules: 19, sol\_per\_pop: 5 \\</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>[0.27152273 0.30735494 0.30091691 0.19446868 0.14661335 0.30501942
- 0.23391627 0.171517   0.91889181 0.25099155]</t>
+          <t>[0.49920004 0.30773715 0.54666718 0.18868656 0.15696459 0.26975037
+ 0.2358486  0.1579165  0.25421862 0.21464704]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[0.89734982 1.49805378 1.53548776 0.70677033 0.49029609 1.19910552
- 0.89447118 0.53943156 3.61387594 1.00262624]</t>
+          <t>[1.64979579 1.49991665 2.78947686 0.68575599 0.52491214 1.0604543
+ 0.90186019 0.49665714 0.9998071  0.85744225]</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>[0.13863745 0.0735488  0.13995896 0.0854277  0.11337164 0.09858006
- 0.12943419 0.09891002 0.34581676 0.05755969]</t>
+          <t>[0.2664113  0.0745254  0.27191632 0.07629744 0.12009688 0.08641469
+ 0.12973683 0.09049931 0.0850401  0.05037328]</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>[52.30769231 47.69230769 55.38461538 43.07692308 47.69230769 52.30769231
- 47.69230769 53.84615385 60.         47.69230769]</t>
+          <t>[46.15384615 50.76923077 55.38461538 46.15384615 43.07692308 55.38461538
+ 47.69230769 53.84615385 46.15384615 50.76923077]</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>[6. 6. 6. 7. 7. 7. 7. 6. 6. 6.]</t>
+          <t>[11. 11. 11. 15. 16. 15. 18. 14. 14. 15.]</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>GEN-NTSK-wRLS &amp; 0.31 $\pm$ 0.21 &amp; 1.24 $\pm$ 0.86 &amp; 0.13 $\pm$ 7.71 &amp; 50.77 $\pm$ 4.67 &amp; 6 $\pm$ 0</t>
+          <t>GEN-NTSK-wRLS &amp; 0.28 $\pm$ 0.13 &amp; 1.15 $\pm$ 0.65 &amp; 0.13 $\pm$ 7.51 &amp; 49.54 $\pm$ 4.12 &amp; 14 $\pm$ 2</t>
         </is>
       </c>
     </row>
@@ -2509,22 +2509,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.49 (0.24)</t>
+          <t>0.53 (0.22)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.94 (1.08)</t>
+          <t>2.17 (1.09)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.23 (0.14)</t>
+          <t>0.24 (0.14)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>50.00 (7.02)</t>
+          <t>50.15 (6.99)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2534,31 +2534,31 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>combination: weighted\_average, n\_estimators: 50 \\</t>
+          <t>combination: median, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>[0.45383323 0.19962657 0.76379027 0.33276984 0.56007501 0.86420394
- 0.73144821 0.16425321 0.22553905 0.5877511 ]</t>
+          <t>[0.42825796 0.57553145 0.83737844 0.33403995 0.56219578 0.82745137
+ 0.73543752 0.16587727 0.28908453 0.58620377]</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[1.49986399 0.97298368 3.89739015 1.20940736 1.87297125 3.39739582
- 2.79698089 0.5165865  0.88701425 2.34786659]</t>
+          <t>[1.41534079 2.80515109 4.27288828 1.2140234  1.88006341 3.25291255
+ 2.81223559 0.52169426 1.13692995 2.34168553]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>[0.25042659 0.04014671 0.3749676  0.12196791 0.40238801 0.32299495
- 0.46066328 0.09144615 0.07934163 0.14333588]</t>
+          <t>[0.2532335  0.14780343 0.40887124 0.12300297 0.40157331 0.30787677
+ 0.46530167 0.08702965 0.10066761 0.14401008]</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>[41.53846154 46.15384615 52.30769231 46.15384615 36.92307692 55.38461538
- 53.84615385 58.46153846 49.23076923 60.        ]</t>
+          <t>[40.         61.53846154 43.07692308 49.23076923 43.07692308 55.38461538
+ 50.76923077 55.38461538 44.61538462 58.46153846]</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>R-NMR &amp; 0.49 $\pm$ 0.24 &amp; 1.94 $\pm$ 1.08 &amp; 0.23 $\pm$ 14.50 &amp; 50.00 $\pm$ 7.02 &amp; "-"</t>
+          <t>R-NMR &amp; 0.53 $\pm$ 0.22 &amp; 2.17 $\pm$ 1.09 &amp; 0.24 $\pm$ 13.57 &amp; 50.15 $\pm$ 6.99 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2583,22 +2583,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.24 (0.06)</t>
+          <t>0.26 (0.11)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.94 (0.33)</t>
+          <t>1.02 (0.44)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.10 (0.04)</t>
+          <t>0.11 (0.07)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>49.85 (6.96)</t>
+          <t>50.46 (5.83)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2608,31 +2608,31 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>adaptive\_filter: wRLS, fuzzy\_operator: prod, rules: 6 \\</t>
+          <t>combination: median, n\_estimators: 50 \\</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>[0.33646097 0.27641799 0.29627697 0.17688866 0.13633649 0.28786671
- 0.22804883 0.15831352 0.24209598 0.21268219]</t>
+          <t>[0.54078509 0.27319796 0.3215356  0.17202674 0.13452707 0.28667077
+ 0.23494679 0.15795766 0.24639843 0.20642386]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[1.11196284 1.3472665  1.51181152 0.6428781  0.45592881 1.13167402
- 0.87203471 0.4979058  0.95213039 0.84959334]</t>
+          <t>[1.78722935 1.33157197 1.64069869 0.6252081  0.44987783 1.12697249
+ 0.89841175 0.49678661 0.96905135 0.8245934 ]</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[0.17953623 0.06410357 0.13760301 0.07308708 0.10656183 0.09342306
- 0.12564584 0.09288492 0.0809873  0.05064826]</t>
+          <t>[0.29708747 0.06216029 0.15092399 0.07110017 0.1052739  0.09308447
+ 0.12928585 0.09186165 0.0813995  0.04835497]</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>[40.         56.92307692 56.92307692 44.61538462 44.61538462 56.92307692
- 52.30769231 58.46153846 40.         47.69230769]</t>
+          <t>[43.07692308 50.76923077 56.92307692 47.69230769 46.15384615 56.92307692
+ 52.30769231 60.         41.53846154 49.23076923]</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>R-NTSK &amp; 0.24 $\pm$ 0.06 &amp; 0.94 $\pm$ 0.33 &amp; 0.10 $\pm$ 3.65 &amp; 49.85 $\pm$ 6.96 &amp; "-"</t>
+          <t>R-NTSK &amp; 0.26 $\pm$ 0.11 &amp; 1.02 $\pm$ 0.44 &amp; 0.11 $\pm$ 6.78 &amp; 50.46 $\pm$ 5.83 &amp; "-"</t>
         </is>
       </c>
     </row>
@@ -2657,22 +2657,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.25 (0.06)</t>
+          <t>0.27 (0.10)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.00 (0.37)</t>
+          <t>1.07 (0.45)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.11 (0.04)</t>
+          <t>0.12 (0.06)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>48.92 (6.52)</t>
+          <t>50.31 (5.01)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2683,26 +2683,26 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>[0.32425272 0.28952828 0.36886591 0.2107386  0.20847279 0.22996961
- 0.23757856 0.16614812 0.22915439 0.24519017]</t>
+          <t>[0.50628121 0.27128692 0.39028948 0.19189381 0.18214634 0.24063224
+ 0.22592529 0.16545129 0.27674389 0.25271962]</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[1.07161605 1.41116629 1.88221089 0.76590117 0.69716295 0.90406647
- 0.90847538 0.52254611 0.90123291 0.9794517 ]</t>
+          <t>[1.67319822 1.32225754 1.9915289  0.69741233 0.60912352 0.94598386
+ 0.86391449 0.52035452 1.08839591 1.00952931]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>[0.16883653 0.06830582 0.17569631 0.08469293 0.15935395 0.07549428
- 0.13258777 0.09807537 0.07855352 0.0568935 ]</t>
+          <t>[0.27851978 0.06187478 0.1872224  0.07932068 0.14219977 0.07696644
+ 0.125095   0.09620823 0.09398787 0.05843889]</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>[40.         46.15384615 53.84615385 43.07692308 47.69230769 58.46153846
- 52.30769231 55.38461538 38.46153846 53.84615385]</t>
+          <t>[44.61538462 50.76923077 55.38461538 44.61538462 46.15384615 56.92307692
+ 50.76923077 58.46153846 44.61538462 50.76923077]</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>RF-NTSK &amp; 0.25 $\pm$ 0.06 &amp; 1.00 $\pm$ 0.37 &amp; 0.11 $\pm$ 4.27 &amp; 48.92 $\pm$ 6.52 &amp; "-"</t>
+          <t>RF-NTSK &amp; 0.27 $\pm$ 0.10 &amp; 1.07 $\pm$ 0.45 &amp; 0.12 $\pm$ 6.49 &amp; 50.31 $\pm$ 5.01 &amp; "-"</t>
         </is>
       </c>
     </row>
